--- a/data/MP_farmer_questionnaire_2023-01-27.xlsx
+++ b/data/MP_farmer_questionnaire_2023-01-27.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/tt15117_bristol_ac_uk/Documents/Nepal Project/Data analysis/Output datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\field work Nepal\Honeybee_decline_Nepal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E24CB8A8001811BD5410DBD944BEE1A5EBAF0234" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDA4FDD-C744-49B6-A185-3E3B3E00B9A6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163EF2A-D8DF-424D-A512-391A65FF1DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-2835" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14899" uniqueCount="2755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14898" uniqueCount="2755">
   <si>
     <t>Column.header</t>
   </si>
@@ -8621,17 +8621,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B882"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="228.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.453125" customWidth="1"/>
+    <col min="2" max="2" width="228.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -8687,7 +8688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -8703,7 +8704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8767,7 +8768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -8935,7 +8936,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -8943,7 +8944,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -8951,7 +8952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -8991,7 +8992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -9007,7 +9008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -9023,7 +9024,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -9031,7 +9032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -9127,7 +9128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>128</v>
       </c>
@@ -9151,7 +9152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>130</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>134</v>
       </c>
@@ -9175,7 +9176,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>136</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>138</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>140</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>142</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -9215,7 +9216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>148</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>152</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>154</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>156</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>158</v>
       </c>
@@ -9271,7 +9272,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>166</v>
       </c>
@@ -9303,7 +9304,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -9311,7 +9312,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>170</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>178</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>182</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>184</v>
       </c>
@@ -9375,7 +9376,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>188</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>190</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>196</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -9431,7 +9432,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>200</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>202</v>
       </c>
@@ -9447,7 +9448,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>208</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>210</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>212</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>214</v>
       </c>
@@ -9495,7 +9496,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>216</v>
       </c>
@@ -9503,7 +9504,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>218</v>
       </c>
@@ -9511,7 +9512,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>224</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>226</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>228</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>230</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>232</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>234</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>238</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>240</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>242</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>244</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>246</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>248</v>
       </c>
@@ -9631,7 +9632,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>250</v>
       </c>
@@ -9639,7 +9640,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>252</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>254</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>258</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>260</v>
       </c>
@@ -9679,7 +9680,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>262</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>264</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>266</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -9791,7 +9792,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -9799,7 +9800,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -9823,7 +9824,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -9879,7 +9880,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -9895,7 +9896,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>318</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>320</v>
       </c>
@@ -9919,7 +9920,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>322</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>324</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>326</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>328</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>332</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -9991,7 +9992,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -10023,7 +10024,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>358</v>
       </c>
@@ -10071,7 +10072,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>360</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>364</v>
       </c>
@@ -10095,7 +10096,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>368</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>370</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>372</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>374</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>376</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>378</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>382</v>
       </c>
@@ -10167,7 +10168,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -10175,7 +10176,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -10183,7 +10184,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>390</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -10207,7 +10208,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>394</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>396</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>398</v>
       </c>
@@ -10231,7 +10232,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>400</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>402</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>404</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>406</v>
       </c>
@@ -10263,7 +10264,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -10271,7 +10272,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -10279,7 +10280,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -10303,7 +10304,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>418</v>
       </c>
@@ -10311,7 +10312,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>420</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>422</v>
       </c>
@@ -10327,7 +10328,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>424</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>426</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>428</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>430</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>432</v>
       </c>
@@ -10367,7 +10368,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>434</v>
       </c>
@@ -10375,7 +10376,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>436</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>438</v>
       </c>
@@ -10391,7 +10392,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>440</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>442</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>444</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>446</v>
       </c>
@@ -10423,7 +10424,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>448</v>
       </c>
@@ -10431,7 +10432,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>450</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>452</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>454</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -10463,7 +10464,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>458</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>460</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>462</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>464</v>
       </c>
@@ -10495,7 +10496,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>466</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>468</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>470</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>472</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>474</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>476</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>478</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>480</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>482</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>484</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>486</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>488</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>490</v>
       </c>
@@ -10599,7 +10600,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>492</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>494</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>496</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>498</v>
       </c>
@@ -10631,7 +10632,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>500</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>502</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>504</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>506</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>508</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>510</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>512</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>514</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>516</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>518</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>522</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>524</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>526</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>528</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>530</v>
       </c>
@@ -10759,7 +10760,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -10767,7 +10768,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>534</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>536</v>
       </c>
@@ -10783,15 +10784,12 @@
         <v>537</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>538</v>
-      </c>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>540</v>
       </c>
@@ -10799,7 +10797,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>542</v>
       </c>
@@ -10807,7 +10805,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -10815,7 +10813,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -10823,7 +10821,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>548</v>
       </c>
@@ -10831,7 +10829,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -10839,7 +10837,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>552</v>
       </c>
@@ -10847,7 +10845,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -10855,7 +10853,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -10863,7 +10861,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -10871,7 +10869,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -10879,7 +10877,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -10887,7 +10885,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>564</v>
       </c>
@@ -10895,7 +10893,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -10903,7 +10901,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -10911,7 +10909,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -10919,7 +10917,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>572</v>
       </c>
@@ -10927,7 +10925,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -10935,7 +10933,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>576</v>
       </c>
@@ -10943,7 +10941,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>578</v>
       </c>
@@ -10951,7 +10949,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>580</v>
       </c>
@@ -10959,7 +10957,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>582</v>
       </c>
@@ -10967,7 +10965,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>584</v>
       </c>
@@ -10975,7 +10973,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>586</v>
       </c>
@@ -10983,7 +10981,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>588</v>
       </c>
@@ -10991,7 +10989,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>590</v>
       </c>
@@ -10999,7 +10997,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>592</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>594</v>
       </c>
@@ -11015,7 +11013,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>596</v>
       </c>
@@ -11023,7 +11021,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>598</v>
       </c>
@@ -11031,7 +11029,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>600</v>
       </c>
@@ -11039,7 +11037,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>602</v>
       </c>
@@ -11047,7 +11045,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>604</v>
       </c>
@@ -11055,7 +11053,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>606</v>
       </c>
@@ -11063,7 +11061,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>608</v>
       </c>
@@ -11071,7 +11069,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>610</v>
       </c>
@@ -11079,7 +11077,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>612</v>
       </c>
@@ -11087,7 +11085,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>614</v>
       </c>
@@ -11095,7 +11093,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>616</v>
       </c>
@@ -11103,7 +11101,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>618</v>
       </c>
@@ -11111,7 +11109,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>620</v>
       </c>
@@ -11119,7 +11117,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>622</v>
       </c>
@@ -11127,7 +11125,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>624</v>
       </c>
@@ -11135,7 +11133,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>626</v>
       </c>
@@ -11143,7 +11141,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>628</v>
       </c>
@@ -11151,7 +11149,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>630</v>
       </c>
@@ -11159,7 +11157,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>632</v>
       </c>
@@ -11167,7 +11165,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>634</v>
       </c>
@@ -11175,7 +11173,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>636</v>
       </c>
@@ -11183,7 +11181,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>638</v>
       </c>
@@ -11191,7 +11189,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>640</v>
       </c>
@@ -11199,7 +11197,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>642</v>
       </c>
@@ -11207,7 +11205,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>644</v>
       </c>
@@ -11215,7 +11213,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>646</v>
       </c>
@@ -11223,7 +11221,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>648</v>
       </c>
@@ -11231,7 +11229,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>650</v>
       </c>
@@ -11239,7 +11237,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>652</v>
       </c>
@@ -11247,7 +11245,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>654</v>
       </c>
@@ -11255,7 +11253,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>656</v>
       </c>
@@ -11263,7 +11261,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>658</v>
       </c>
@@ -11271,7 +11269,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>660</v>
       </c>
@@ -11279,7 +11277,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>662</v>
       </c>
@@ -11287,7 +11285,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>664</v>
       </c>
@@ -11295,7 +11293,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>666</v>
       </c>
@@ -11303,7 +11301,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>668</v>
       </c>
@@ -11311,7 +11309,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>670</v>
       </c>
@@ -11319,7 +11317,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>672</v>
       </c>
@@ -11327,7 +11325,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>674</v>
       </c>
@@ -11335,7 +11333,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>676</v>
       </c>
@@ -11343,7 +11341,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>678</v>
       </c>
@@ -11351,7 +11349,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>680</v>
       </c>
@@ -11359,7 +11357,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>682</v>
       </c>
@@ -11367,7 +11365,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>684</v>
       </c>
@@ -11375,7 +11373,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>686</v>
       </c>
@@ -11383,7 +11381,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>688</v>
       </c>
@@ -11391,7 +11389,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>690</v>
       </c>
@@ -11399,7 +11397,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>692</v>
       </c>
@@ -11407,7 +11405,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>694</v>
       </c>
@@ -11415,7 +11413,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>696</v>
       </c>
@@ -11423,7 +11421,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>698</v>
       </c>
@@ -11431,7 +11429,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>700</v>
       </c>
@@ -11439,7 +11437,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>702</v>
       </c>
@@ -11447,7 +11445,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>704</v>
       </c>
@@ -11455,7 +11453,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>706</v>
       </c>
@@ -11463,7 +11461,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>708</v>
       </c>
@@ -11471,7 +11469,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>710</v>
       </c>
@@ -11479,7 +11477,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>712</v>
       </c>
@@ -11487,7 +11485,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -11495,7 +11493,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>716</v>
       </c>
@@ -11503,7 +11501,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>718</v>
       </c>
@@ -11511,7 +11509,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>720</v>
       </c>
@@ -11519,7 +11517,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>722</v>
       </c>
@@ -11527,7 +11525,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>724</v>
       </c>
@@ -11535,7 +11533,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>726</v>
       </c>
@@ -11543,7 +11541,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>728</v>
       </c>
@@ -11551,7 +11549,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>730</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>732</v>
       </c>
@@ -11567,7 +11565,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>734</v>
       </c>
@@ -11575,7 +11573,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>736</v>
       </c>
@@ -11583,7 +11581,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>738</v>
       </c>
@@ -11591,7 +11589,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>740</v>
       </c>
@@ -11599,7 +11597,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>741</v>
       </c>
@@ -11607,7 +11605,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>743</v>
       </c>
@@ -11615,7 +11613,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>745</v>
       </c>
@@ -11623,7 +11621,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>747</v>
       </c>
@@ -11631,7 +11629,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>749</v>
       </c>
@@ -11639,7 +11637,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>751</v>
       </c>
@@ -11647,7 +11645,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>753</v>
       </c>
@@ -11655,7 +11653,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>755</v>
       </c>
@@ -11663,7 +11661,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>757</v>
       </c>
@@ -11671,7 +11669,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>759</v>
       </c>
@@ -11679,7 +11677,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>761</v>
       </c>
@@ -11687,7 +11685,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>763</v>
       </c>
@@ -11695,7 +11693,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>765</v>
       </c>
@@ -11703,7 +11701,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>767</v>
       </c>
@@ -11711,7 +11709,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>769</v>
       </c>
@@ -11719,7 +11717,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>771</v>
       </c>
@@ -11727,7 +11725,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>773</v>
       </c>
@@ -11735,7 +11733,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>775</v>
       </c>
@@ -11743,7 +11741,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>776</v>
       </c>
@@ -11751,7 +11749,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>778</v>
       </c>
@@ -11759,7 +11757,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>780</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>782</v>
       </c>
@@ -11775,7 +11773,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>784</v>
       </c>
@@ -11783,7 +11781,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>786</v>
       </c>
@@ -11791,7 +11789,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>788</v>
       </c>
@@ -11799,7 +11797,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>790</v>
       </c>
@@ -11807,7 +11805,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>792</v>
       </c>
@@ -11815,7 +11813,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>794</v>
       </c>
@@ -11823,7 +11821,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>796</v>
       </c>
@@ -11831,7 +11829,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -11839,7 +11837,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -11847,7 +11845,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -11855,7 +11853,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -11863,7 +11861,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -11871,7 +11869,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -11879,7 +11877,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -11887,7 +11885,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>811</v>
       </c>
@@ -11895,7 +11893,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>813</v>
       </c>
@@ -11903,7 +11901,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -11911,7 +11909,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>816</v>
       </c>
@@ -11919,7 +11917,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>818</v>
       </c>
@@ -11927,7 +11925,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>820</v>
       </c>
@@ -11935,7 +11933,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>822</v>
       </c>
@@ -11943,7 +11941,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>824</v>
       </c>
@@ -11951,7 +11949,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>826</v>
       </c>
@@ -11959,7 +11957,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>828</v>
       </c>
@@ -11967,7 +11965,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>830</v>
       </c>
@@ -11975,7 +11973,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>831</v>
       </c>
@@ -11983,7 +11981,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>833</v>
       </c>
@@ -11991,7 +11989,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>835</v>
       </c>
@@ -11999,7 +11997,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>837</v>
       </c>
@@ -12007,7 +12005,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>839</v>
       </c>
@@ -12015,7 +12013,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>841</v>
       </c>
@@ -12023,7 +12021,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>843</v>
       </c>
@@ -12031,7 +12029,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>845</v>
       </c>
@@ -12039,7 +12037,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>847</v>
       </c>
@@ -12047,7 +12045,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>849</v>
       </c>
@@ -12055,7 +12053,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>851</v>
       </c>
@@ -12063,7 +12061,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>853</v>
       </c>
@@ -12071,7 +12069,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>855</v>
       </c>
@@ -12079,7 +12077,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>857</v>
       </c>
@@ -12087,7 +12085,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>859</v>
       </c>
@@ -12095,7 +12093,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>861</v>
       </c>
@@ -12103,7 +12101,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>863</v>
       </c>
@@ -12111,7 +12109,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>865</v>
       </c>
@@ -12119,7 +12117,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>867</v>
       </c>
@@ -12127,7 +12125,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>869</v>
       </c>
@@ -12135,7 +12133,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>871</v>
       </c>
@@ -12143,7 +12141,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>873</v>
       </c>
@@ -12151,7 +12149,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>875</v>
       </c>
@@ -12159,7 +12157,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>877</v>
       </c>
@@ -12167,7 +12165,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>879</v>
       </c>
@@ -12175,7 +12173,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>881</v>
       </c>
@@ -12183,7 +12181,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>883</v>
       </c>
@@ -12191,7 +12189,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>885</v>
       </c>
@@ -12199,7 +12197,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>887</v>
       </c>
@@ -12207,7 +12205,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>889</v>
       </c>
@@ -12215,7 +12213,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>891</v>
       </c>
@@ -12223,7 +12221,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>893</v>
       </c>
@@ -12231,7 +12229,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>895</v>
       </c>
@@ -12239,7 +12237,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>897</v>
       </c>
@@ -12247,7 +12245,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>899</v>
       </c>
@@ -12255,7 +12253,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>901</v>
       </c>
@@ -12263,7 +12261,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>903</v>
       </c>
@@ -12271,7 +12269,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>905</v>
       </c>
@@ -12279,7 +12277,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>907</v>
       </c>
@@ -12287,7 +12285,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>909</v>
       </c>
@@ -12295,7 +12293,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>911</v>
       </c>
@@ -12303,7 +12301,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>913</v>
       </c>
@@ -12311,7 +12309,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>915</v>
       </c>
@@ -12319,7 +12317,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>917</v>
       </c>
@@ -12327,7 +12325,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>919</v>
       </c>
@@ -12335,7 +12333,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>921</v>
       </c>
@@ -12343,7 +12341,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>923</v>
       </c>
@@ -12351,7 +12349,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>925</v>
       </c>
@@ -12359,7 +12357,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>927</v>
       </c>
@@ -12367,7 +12365,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>929</v>
       </c>
@@ -12375,7 +12373,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>931</v>
       </c>
@@ -12383,7 +12381,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>933</v>
       </c>
@@ -12391,7 +12389,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>935</v>
       </c>
@@ -12399,7 +12397,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>937</v>
       </c>
@@ -12407,7 +12405,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>939</v>
       </c>
@@ -12415,7 +12413,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>941</v>
       </c>
@@ -12423,7 +12421,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>943</v>
       </c>
@@ -12431,7 +12429,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>945</v>
       </c>
@@ -12439,7 +12437,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>947</v>
       </c>
@@ -12447,7 +12445,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>949</v>
       </c>
@@ -12455,7 +12453,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>951</v>
       </c>
@@ -12463,7 +12461,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>953</v>
       </c>
@@ -12471,7 +12469,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>955</v>
       </c>
@@ -12479,7 +12477,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>957</v>
       </c>
@@ -12487,7 +12485,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>959</v>
       </c>
@@ -12495,7 +12493,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>961</v>
       </c>
@@ -12503,7 +12501,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>963</v>
       </c>
@@ -12511,7 +12509,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>965</v>
       </c>
@@ -12519,7 +12517,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>967</v>
       </c>
@@ -12527,7 +12525,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>969</v>
       </c>
@@ -12535,7 +12533,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>971</v>
       </c>
@@ -12543,7 +12541,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>973</v>
       </c>
@@ -12551,7 +12549,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>975</v>
       </c>
@@ -12559,7 +12557,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>977</v>
       </c>
@@ -12567,7 +12565,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>979</v>
       </c>
@@ -12575,7 +12573,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>981</v>
       </c>
@@ -12583,7 +12581,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>983</v>
       </c>
@@ -12591,7 +12589,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>985</v>
       </c>
@@ -12599,7 +12597,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>987</v>
       </c>
@@ -12607,7 +12605,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>989</v>
       </c>
@@ -12615,7 +12613,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>991</v>
       </c>
@@ -12623,7 +12621,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>992</v>
       </c>
@@ -12631,7 +12629,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>993</v>
       </c>
@@ -12639,7 +12637,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>994</v>
       </c>
@@ -12647,7 +12645,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>995</v>
       </c>
@@ -12655,7 +12653,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>996</v>
       </c>
@@ -12663,7 +12661,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>997</v>
       </c>
@@ -12671,7 +12669,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>998</v>
       </c>
@@ -12679,7 +12677,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>999</v>
       </c>
@@ -12687,7 +12685,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1000</v>
       </c>
@@ -12695,7 +12693,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1001</v>
       </c>
@@ -12703,7 +12701,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1002</v>
       </c>
@@ -12711,7 +12709,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1003</v>
       </c>
@@ -12719,7 +12717,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1004</v>
       </c>
@@ -12727,7 +12725,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1005</v>
       </c>
@@ -12735,7 +12733,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1006</v>
       </c>
@@ -12743,7 +12741,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1007</v>
       </c>
@@ -12751,7 +12749,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1008</v>
       </c>
@@ -12759,7 +12757,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1009</v>
       </c>
@@ -12767,7 +12765,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1010</v>
       </c>
@@ -12775,7 +12773,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1011</v>
       </c>
@@ -12783,7 +12781,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1012</v>
       </c>
@@ -12791,7 +12789,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1013</v>
       </c>
@@ -12799,7 +12797,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>1014</v>
       </c>
@@ -12807,7 +12805,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1015</v>
       </c>
@@ -12815,7 +12813,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1016</v>
       </c>
@@ -12823,7 +12821,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1017</v>
       </c>
@@ -12831,7 +12829,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>1018</v>
       </c>
@@ -12839,7 +12837,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1019</v>
       </c>
@@ -12847,7 +12845,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1020</v>
       </c>
@@ -12855,7 +12853,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>1021</v>
       </c>
@@ -12863,7 +12861,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1022</v>
       </c>
@@ -12871,7 +12869,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1023</v>
       </c>
@@ -12879,7 +12877,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1024</v>
       </c>
@@ -12887,7 +12885,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>1025</v>
       </c>
@@ -12895,7 +12893,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1026</v>
       </c>
@@ -12903,7 +12901,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1027</v>
       </c>
@@ -12911,7 +12909,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1028</v>
       </c>
@@ -12919,7 +12917,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1029</v>
       </c>
@@ -12927,7 +12925,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1030</v>
       </c>
@@ -12935,7 +12933,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1031</v>
       </c>
@@ -12943,7 +12941,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1032</v>
       </c>
@@ -12951,7 +12949,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>1033</v>
       </c>
@@ -12959,7 +12957,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1034</v>
       </c>
@@ -12967,7 +12965,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1035</v>
       </c>
@@ -12975,7 +12973,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1036</v>
       </c>
@@ -12983,7 +12981,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>1038</v>
       </c>
@@ -12991,7 +12989,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1039</v>
       </c>
@@ -12999,7 +12997,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1040</v>
       </c>
@@ -13007,7 +13005,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1041</v>
       </c>
@@ -13015,7 +13013,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>1042</v>
       </c>
@@ -13023,7 +13021,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>1043</v>
       </c>
@@ -13031,7 +13029,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>1044</v>
       </c>
@@ -13039,7 +13037,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>1045</v>
       </c>
@@ -13047,7 +13045,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1046</v>
       </c>
@@ -13055,7 +13053,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>1047</v>
       </c>
@@ -13063,7 +13061,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>1048</v>
       </c>
@@ -13071,7 +13069,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1049</v>
       </c>
@@ -13079,7 +13077,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1050</v>
       </c>
@@ -13087,7 +13085,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>1051</v>
       </c>
@@ -13095,7 +13093,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>1052</v>
       </c>
@@ -13103,7 +13101,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1053</v>
       </c>
@@ -13111,7 +13109,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>1054</v>
       </c>
@@ -13119,7 +13117,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1055</v>
       </c>
@@ -13127,7 +13125,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1056</v>
       </c>
@@ -13135,7 +13133,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>1057</v>
       </c>
@@ -13143,7 +13141,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1058</v>
       </c>
@@ -13151,7 +13149,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1059</v>
       </c>
@@ -13159,7 +13157,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1061</v>
       </c>
@@ -13167,7 +13165,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1063</v>
       </c>
@@ -13175,7 +13173,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1064</v>
       </c>
@@ -13183,7 +13181,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>1065</v>
       </c>
@@ -13191,7 +13189,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1066</v>
       </c>
@@ -13199,7 +13197,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1067</v>
       </c>
@@ -13207,7 +13205,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1068</v>
       </c>
@@ -13215,7 +13213,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>1069</v>
       </c>
@@ -13223,7 +13221,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>1070</v>
       </c>
@@ -13231,7 +13229,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1071</v>
       </c>
@@ -13239,7 +13237,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1072</v>
       </c>
@@ -13247,7 +13245,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1073</v>
       </c>
@@ -13255,7 +13253,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>1074</v>
       </c>
@@ -13263,7 +13261,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>1075</v>
       </c>
@@ -13271,7 +13269,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1076</v>
       </c>
@@ -13279,7 +13277,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1077</v>
       </c>
@@ -13287,7 +13285,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1078</v>
       </c>
@@ -13295,7 +13293,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1079</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>1080</v>
       </c>
@@ -13311,7 +13309,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>1081</v>
       </c>
@@ -13319,7 +13317,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>1082</v>
       </c>
@@ -13327,7 +13325,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1083</v>
       </c>
@@ -13335,7 +13333,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>1084</v>
       </c>
@@ -13343,7 +13341,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1085</v>
       </c>
@@ -13351,7 +13349,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>1086</v>
       </c>
@@ -13359,7 +13357,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>1087</v>
       </c>
@@ -13367,7 +13365,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>1088</v>
       </c>
@@ -13375,7 +13373,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>1089</v>
       </c>
@@ -13383,7 +13381,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>1090</v>
       </c>
@@ -13391,7 +13389,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>1091</v>
       </c>
@@ -13399,7 +13397,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>1092</v>
       </c>
@@ -13407,7 +13405,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>1093</v>
       </c>
@@ -13415,7 +13413,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>1094</v>
       </c>
@@ -13423,7 +13421,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>1095</v>
       </c>
@@ -13431,7 +13429,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>1096</v>
       </c>
@@ -13439,7 +13437,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>1097</v>
       </c>
@@ -13447,7 +13445,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>1098</v>
       </c>
@@ -13455,7 +13453,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>1099</v>
       </c>
@@ -13463,7 +13461,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>1100</v>
       </c>
@@ -13471,7 +13469,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>1101</v>
       </c>
@@ -13479,7 +13477,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>1102</v>
       </c>
@@ -13487,7 +13485,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>1103</v>
       </c>
@@ -13495,7 +13493,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>1104</v>
       </c>
@@ -13503,7 +13501,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>1105</v>
       </c>
@@ -13511,7 +13509,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>1106</v>
       </c>
@@ -13519,7 +13517,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>1107</v>
       </c>
@@ -13527,7 +13525,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>1108</v>
       </c>
@@ -13535,7 +13533,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>1109</v>
       </c>
@@ -13543,7 +13541,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>1110</v>
       </c>
@@ -13551,7 +13549,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>1111</v>
       </c>
@@ -13559,7 +13557,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>1112</v>
       </c>
@@ -13567,7 +13565,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>1113</v>
       </c>
@@ -13575,7 +13573,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>1114</v>
       </c>
@@ -13583,7 +13581,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>1115</v>
       </c>
@@ -13591,7 +13589,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>1116</v>
       </c>
@@ -13599,7 +13597,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>1117</v>
       </c>
@@ -13607,7 +13605,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>1118</v>
       </c>
@@ -13615,7 +13613,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>1119</v>
       </c>
@@ -13623,7 +13621,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>1120</v>
       </c>
@@ -13631,7 +13629,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>1121</v>
       </c>
@@ -13639,7 +13637,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>1122</v>
       </c>
@@ -13647,7 +13645,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>1123</v>
       </c>
@@ -13655,7 +13653,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>1124</v>
       </c>
@@ -13663,7 +13661,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>1125</v>
       </c>
@@ -13671,7 +13669,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>1126</v>
       </c>
@@ -13679,7 +13677,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>1127</v>
       </c>
@@ -13687,7 +13685,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>1128</v>
       </c>
@@ -13695,7 +13693,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>1129</v>
       </c>
@@ -13703,7 +13701,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>1130</v>
       </c>
@@ -13711,7 +13709,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>1132</v>
       </c>
@@ -13719,7 +13717,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>1134</v>
       </c>
@@ -13727,7 +13725,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>1135</v>
       </c>
@@ -13735,7 +13733,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>1136</v>
       </c>
@@ -13743,7 +13741,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>1137</v>
       </c>
@@ -13751,7 +13749,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>1138</v>
       </c>
@@ -13759,7 +13757,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>1139</v>
       </c>
@@ -13767,7 +13765,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>1140</v>
       </c>
@@ -13775,7 +13773,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>1141</v>
       </c>
@@ -13783,7 +13781,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>1142</v>
       </c>
@@ -13791,7 +13789,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>1143</v>
       </c>
@@ -13799,7 +13797,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>1144</v>
       </c>
@@ -13807,7 +13805,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>1145</v>
       </c>
@@ -13815,7 +13813,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>1146</v>
       </c>
@@ -13823,7 +13821,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>1147</v>
       </c>
@@ -13831,7 +13829,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>1148</v>
       </c>
@@ -13839,7 +13837,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>1149</v>
       </c>
@@ -13847,7 +13845,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>1150</v>
       </c>
@@ -13855,7 +13853,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>1151</v>
       </c>
@@ -13863,7 +13861,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>1152</v>
       </c>
@@ -13871,7 +13869,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>1153</v>
       </c>
@@ -13879,7 +13877,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>1154</v>
       </c>
@@ -13887,7 +13885,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>1155</v>
       </c>
@@ -13895,7 +13893,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>1156</v>
       </c>
@@ -13903,7 +13901,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>1157</v>
       </c>
@@ -13911,7 +13909,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>1158</v>
       </c>
@@ -13919,7 +13917,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>1159</v>
       </c>
@@ -13927,7 +13925,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>1160</v>
       </c>
@@ -13935,7 +13933,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>1161</v>
       </c>
@@ -13943,7 +13941,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>1162</v>
       </c>
@@ -13951,7 +13949,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>1163</v>
       </c>
@@ -13959,7 +13957,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>1164</v>
       </c>
@@ -13967,7 +13965,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>1165</v>
       </c>
@@ -13975,7 +13973,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>1166</v>
       </c>
@@ -13983,7 +13981,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>1167</v>
       </c>
@@ -13991,7 +13989,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>1168</v>
       </c>
@@ -13999,7 +13997,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>1169</v>
       </c>
@@ -14007,7 +14005,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>1170</v>
       </c>
@@ -14015,7 +14013,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>1171</v>
       </c>
@@ -14023,7 +14021,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>1172</v>
       </c>
@@ -14031,7 +14029,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>1173</v>
       </c>
@@ -14039,7 +14037,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>1174</v>
       </c>
@@ -14047,7 +14045,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>1175</v>
       </c>
@@ -14055,7 +14053,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>1176</v>
       </c>
@@ -14063,7 +14061,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>1177</v>
       </c>
@@ -14071,7 +14069,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>1178</v>
       </c>
@@ -14079,7 +14077,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>1179</v>
       </c>
@@ -14087,7 +14085,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>1180</v>
       </c>
@@ -14095,7 +14093,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>1181</v>
       </c>
@@ -14103,7 +14101,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>1182</v>
       </c>
@@ -14111,7 +14109,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>1183</v>
       </c>
@@ -14119,7 +14117,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>1184</v>
       </c>
@@ -14127,7 +14125,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>1185</v>
       </c>
@@ -14135,7 +14133,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>1186</v>
       </c>
@@ -14143,7 +14141,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>1187</v>
       </c>
@@ -14151,7 +14149,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>1188</v>
       </c>
@@ -14159,7 +14157,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>1189</v>
       </c>
@@ -14167,7 +14165,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>1190</v>
       </c>
@@ -14175,7 +14173,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>1191</v>
       </c>
@@ -14183,7 +14181,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>1192</v>
       </c>
@@ -14191,7 +14189,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>1193</v>
       </c>
@@ -14199,7 +14197,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>1194</v>
       </c>
@@ -14207,7 +14205,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>1195</v>
       </c>
@@ -14215,7 +14213,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>1196</v>
       </c>
@@ -14223,7 +14221,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>1197</v>
       </c>
@@ -14231,7 +14229,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>1198</v>
       </c>
@@ -14239,7 +14237,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>1199</v>
       </c>
@@ -14247,7 +14245,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>1200</v>
       </c>
@@ -14255,7 +14253,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>1201</v>
       </c>
@@ -14263,7 +14261,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>1203</v>
       </c>
@@ -14271,7 +14269,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>1204</v>
       </c>
@@ -14279,7 +14277,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>1205</v>
       </c>
@@ -14287,7 +14285,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>1206</v>
       </c>
@@ -14295,7 +14293,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>1207</v>
       </c>
@@ -14303,7 +14301,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>1208</v>
       </c>
@@ -14311,7 +14309,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>1209</v>
       </c>
@@ -14319,7 +14317,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>1210</v>
       </c>
@@ -14327,7 +14325,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>1211</v>
       </c>
@@ -14335,7 +14333,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>1212</v>
       </c>
@@ -14343,7 +14341,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>1213</v>
       </c>
@@ -14351,7 +14349,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>1214</v>
       </c>
@@ -14359,7 +14357,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>1215</v>
       </c>
@@ -14367,7 +14365,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>1216</v>
       </c>
@@ -14375,7 +14373,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>1217</v>
       </c>
@@ -14383,7 +14381,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>1218</v>
       </c>
@@ -14391,7 +14389,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>1219</v>
       </c>
@@ -14399,7 +14397,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>1220</v>
       </c>
@@ -14407,7 +14405,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>1221</v>
       </c>
@@ -14415,7 +14413,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>1222</v>
       </c>
@@ -14423,7 +14421,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>1223</v>
       </c>
@@ -14431,7 +14429,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>1224</v>
       </c>
@@ -14439,7 +14437,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>1225</v>
       </c>
@@ -14447,7 +14445,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>1226</v>
       </c>
@@ -14455,7 +14453,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>1227</v>
       </c>
@@ -14463,7 +14461,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>1228</v>
       </c>
@@ -14471,7 +14469,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>1229</v>
       </c>
@@ -14479,7 +14477,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>1230</v>
       </c>
@@ -14487,7 +14485,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>1231</v>
       </c>
@@ -14495,7 +14493,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>1232</v>
       </c>
@@ -14503,7 +14501,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>1233</v>
       </c>
@@ -14511,7 +14509,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>1234</v>
       </c>
@@ -14519,7 +14517,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>1235</v>
       </c>
@@ -14527,7 +14525,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>1236</v>
       </c>
@@ -14535,7 +14533,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>1237</v>
       </c>
@@ -14543,7 +14541,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>1238</v>
       </c>
@@ -14551,7 +14549,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>1239</v>
       </c>
@@ -14559,7 +14557,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>1240</v>
       </c>
@@ -14567,7 +14565,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>1241</v>
       </c>
@@ -14575,7 +14573,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>1242</v>
       </c>
@@ -14583,7 +14581,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>1243</v>
       </c>
@@ -14591,7 +14589,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>1244</v>
       </c>
@@ -14599,7 +14597,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>1245</v>
       </c>
@@ -14607,7 +14605,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>1246</v>
       </c>
@@ -14615,7 +14613,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>1247</v>
       </c>
@@ -14623,7 +14621,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>1248</v>
       </c>
@@ -14631,7 +14629,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>1249</v>
       </c>
@@ -14639,7 +14637,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>1250</v>
       </c>
@@ -14647,7 +14645,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>1251</v>
       </c>
@@ -14655,7 +14653,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>1252</v>
       </c>
@@ -14663,7 +14661,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>1253</v>
       </c>
@@ -14671,7 +14669,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>1254</v>
       </c>
@@ -14679,7 +14677,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>1255</v>
       </c>
@@ -14687,7 +14685,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>1256</v>
       </c>
@@ -14695,7 +14693,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>1257</v>
       </c>
@@ -14703,7 +14701,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>1258</v>
       </c>
@@ -14711,7 +14709,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>1259</v>
       </c>
@@ -14719,7 +14717,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>1260</v>
       </c>
@@ -14727,7 +14725,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>1261</v>
       </c>
@@ -14735,7 +14733,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>1262</v>
       </c>
@@ -14743,7 +14741,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>1263</v>
       </c>
@@ -14751,7 +14749,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>1264</v>
       </c>
@@ -14759,7 +14757,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>1265</v>
       </c>
@@ -14767,7 +14765,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>1266</v>
       </c>
@@ -14775,7 +14773,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>1267</v>
       </c>
@@ -14783,7 +14781,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>1268</v>
       </c>
@@ -14791,7 +14789,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>1269</v>
       </c>
@@ -14799,7 +14797,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>1270</v>
       </c>
@@ -14807,7 +14805,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>1271</v>
       </c>
@@ -14815,7 +14813,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>1272</v>
       </c>
@@ -14823,7 +14821,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>1274</v>
       </c>
@@ -14831,7 +14829,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>1275</v>
       </c>
@@ -14839,7 +14837,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>1276</v>
       </c>
@@ -14847,7 +14845,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>1277</v>
       </c>
@@ -14855,7 +14853,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>1278</v>
       </c>
@@ -14863,7 +14861,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>1279</v>
       </c>
@@ -14871,7 +14869,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>1280</v>
       </c>
@@ -14879,7 +14877,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>1281</v>
       </c>
@@ -14887,7 +14885,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>1282</v>
       </c>
@@ -14895,7 +14893,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>1283</v>
       </c>
@@ -14903,7 +14901,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>1284</v>
       </c>
@@ -14911,7 +14909,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>1285</v>
       </c>
@@ -14919,7 +14917,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>1286</v>
       </c>
@@ -14927,7 +14925,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>1287</v>
       </c>
@@ -14935,7 +14933,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>1288</v>
       </c>
@@ -14943,7 +14941,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>1289</v>
       </c>
@@ -14951,7 +14949,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>1290</v>
       </c>
@@ -14959,7 +14957,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>1291</v>
       </c>
@@ -14967,7 +14965,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>1292</v>
       </c>
@@ -14975,7 +14973,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>1293</v>
       </c>
@@ -14983,7 +14981,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>1294</v>
       </c>
@@ -14991,7 +14989,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>1295</v>
       </c>
@@ -14999,7 +14997,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>1296</v>
       </c>
@@ -15007,7 +15005,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>1297</v>
       </c>
@@ -15015,7 +15013,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>1298</v>
       </c>
@@ -15023,7 +15021,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>1299</v>
       </c>
@@ -15031,7 +15029,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>1300</v>
       </c>
@@ -15039,7 +15037,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>1301</v>
       </c>
@@ -15047,7 +15045,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>1302</v>
       </c>
@@ -15055,7 +15053,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>1303</v>
       </c>
@@ -15063,7 +15061,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>1304</v>
       </c>
@@ -15071,7 +15069,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>1305</v>
       </c>
@@ -15079,7 +15077,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>1306</v>
       </c>
@@ -15087,7 +15085,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>1307</v>
       </c>
@@ -15095,7 +15093,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>1308</v>
       </c>
@@ -15103,7 +15101,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>1309</v>
       </c>
@@ -15111,7 +15109,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>1310</v>
       </c>
@@ -15119,7 +15117,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>1311</v>
       </c>
@@ -15127,7 +15125,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>1312</v>
       </c>
@@ -15135,7 +15133,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>1313</v>
       </c>
@@ -15143,7 +15141,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>1314</v>
       </c>
@@ -15151,7 +15149,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>1315</v>
       </c>
@@ -15159,7 +15157,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>1316</v>
       </c>
@@ -15167,7 +15165,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>1317</v>
       </c>
@@ -15175,7 +15173,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>1318</v>
       </c>
@@ -15183,7 +15181,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>1319</v>
       </c>
@@ -15191,7 +15189,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>1320</v>
       </c>
@@ -15199,7 +15197,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>1321</v>
       </c>
@@ -15207,7 +15205,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>1322</v>
       </c>
@@ -15215,7 +15213,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>1323</v>
       </c>
@@ -15223,7 +15221,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>1324</v>
       </c>
@@ -15231,7 +15229,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>1325</v>
       </c>
@@ -15239,7 +15237,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>1326</v>
       </c>
@@ -15247,7 +15245,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>1327</v>
       </c>
@@ -15255,7 +15253,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>1328</v>
       </c>
@@ -15263,7 +15261,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>1329</v>
       </c>
@@ -15271,7 +15269,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>1330</v>
       </c>
@@ -15279,7 +15277,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>1331</v>
       </c>
@@ -15287,7 +15285,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A833" t="s">
         <v>1332</v>
       </c>
@@ -15295,7 +15293,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A834" t="s">
         <v>1333</v>
       </c>
@@ -15303,7 +15301,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A835" t="s">
         <v>1334</v>
       </c>
@@ -15311,7 +15309,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A836" t="s">
         <v>1335</v>
       </c>
@@ -15319,7 +15317,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A837" t="s">
         <v>1336</v>
       </c>
@@ -15327,7 +15325,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A838" t="s">
         <v>1337</v>
       </c>
@@ -15335,7 +15333,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A839" t="s">
         <v>1338</v>
       </c>
@@ -15343,7 +15341,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A840" t="s">
         <v>1339</v>
       </c>
@@ -15351,7 +15349,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A841" t="s">
         <v>1340</v>
       </c>
@@ -15359,7 +15357,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A842" t="s">
         <v>1341</v>
       </c>
@@ -15367,7 +15365,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A843" t="s">
         <v>1342</v>
       </c>
@@ -15375,7 +15373,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A844" t="s">
         <v>1343</v>
       </c>
@@ -15383,7 +15381,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A845" t="s">
         <v>1345</v>
       </c>
@@ -15391,7 +15389,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A846" t="s">
         <v>1347</v>
       </c>
@@ -15399,7 +15397,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A847" t="s">
         <v>1349</v>
       </c>
@@ -15407,7 +15405,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A848" t="s">
         <v>1351</v>
       </c>
@@ -15415,7 +15413,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A849" t="s">
         <v>1353</v>
       </c>
@@ -15423,7 +15421,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A850" t="s">
         <v>1355</v>
       </c>
@@ -15431,7 +15429,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A851" t="s">
         <v>1357</v>
       </c>
@@ -15439,7 +15437,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A852" t="s">
         <v>1359</v>
       </c>
@@ -15447,7 +15445,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A853" t="s">
         <v>1361</v>
       </c>
@@ -15455,7 +15453,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A854" t="s">
         <v>1363</v>
       </c>
@@ -15463,7 +15461,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A855" t="s">
         <v>1365</v>
       </c>
@@ -15471,7 +15469,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A856" t="s">
         <v>1367</v>
       </c>
@@ -15479,7 +15477,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A857" t="s">
         <v>1369</v>
       </c>
@@ -15487,7 +15485,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A858" t="s">
         <v>1371</v>
       </c>
@@ -15495,7 +15493,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
         <v>1373</v>
       </c>
@@ -15503,7 +15501,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
         <v>1375</v>
       </c>
@@ -15511,7 +15509,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A861" t="s">
         <v>1377</v>
       </c>
@@ -15519,7 +15517,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A862" t="s">
         <v>1379</v>
       </c>
@@ -15527,7 +15525,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A863" t="s">
         <v>1381</v>
       </c>
@@ -15535,7 +15533,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A864" t="s">
         <v>1383</v>
       </c>
@@ -15543,7 +15541,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A865" t="s">
         <v>1385</v>
       </c>
@@ -15551,7 +15549,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A866" t="s">
         <v>1387</v>
       </c>
@@ -15559,7 +15557,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A867" t="s">
         <v>1389</v>
       </c>
@@ -15567,7 +15565,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
         <v>1391</v>
       </c>
@@ -15575,7 +15573,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
         <v>1393</v>
       </c>
@@ -15583,7 +15581,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A870" t="s">
         <v>1395</v>
       </c>
@@ -15591,7 +15589,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A871" t="s">
         <v>1397</v>
       </c>
@@ -15599,7 +15597,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A872" t="s">
         <v>1399</v>
       </c>
@@ -15607,7 +15605,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A873" t="s">
         <v>1401</v>
       </c>
@@ -15615,7 +15613,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A874" t="s">
         <v>1403</v>
       </c>
@@ -15623,7 +15621,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A875" t="s">
         <v>1405</v>
       </c>
@@ -15631,7 +15629,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A876" t="s">
         <v>1407</v>
       </c>
@@ -15639,7 +15637,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A877" t="s">
         <v>1409</v>
       </c>
@@ -15647,7 +15645,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A878" t="s">
         <v>1411</v>
       </c>
@@ -15655,7 +15653,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A879" t="s">
         <v>1413</v>
       </c>
@@ -15663,7 +15661,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A880" t="s">
         <v>1415</v>
       </c>
@@ -15671,7 +15669,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A881" t="s">
         <v>1417</v>
       </c>
@@ -15679,7 +15677,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A882" t="s">
         <v>1419</v>
       </c>
@@ -15697,14 +15695,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AGV201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -18346,7 +18344,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="2" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1421</v>
       </c>
@@ -18999,7 +18997,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="3" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1421</v>
       </c>
@@ -19643,7 +19641,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="4" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1421</v>
       </c>
@@ -20137,7 +20135,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="5" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1421</v>
       </c>
@@ -20661,7 +20659,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="6" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1421</v>
       </c>
@@ -21152,7 +21150,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="7" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1421</v>
       </c>
@@ -21715,7 +21713,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="8" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1421</v>
       </c>
@@ -22287,7 +22285,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="9" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1421</v>
       </c>
@@ -22778,7 +22776,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="10" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1421</v>
       </c>
@@ -23305,7 +23303,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1421</v>
       </c>
@@ -23895,7 +23893,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="12" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1421</v>
       </c>
@@ -24470,7 +24468,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="13" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1421</v>
       </c>
@@ -24988,7 +24986,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="14" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1421</v>
       </c>
@@ -25500,7 +25498,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="15" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1421</v>
       </c>
@@ -26054,7 +26052,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="16" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1421</v>
       </c>
@@ -26530,7 +26528,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="17" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1421</v>
       </c>
@@ -27012,7 +27010,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="18" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1421</v>
       </c>
@@ -27506,7 +27504,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="19" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>1421</v>
       </c>
@@ -27985,7 +27983,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="20" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>1421</v>
       </c>
@@ -28500,7 +28498,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="21" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1421</v>
       </c>
@@ -29036,7 +29034,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="22" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>1598</v>
       </c>
@@ -29497,7 +29495,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="23" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1598</v>
       </c>
@@ -30006,7 +30004,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="24" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1598</v>
       </c>
@@ -30500,7 +30498,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="25" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1598</v>
       </c>
@@ -30946,7 +30944,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="26" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1598</v>
       </c>
@@ -31620,7 +31618,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="27" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1598</v>
       </c>
@@ -32090,7 +32088,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="28" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1598</v>
       </c>
@@ -32542,7 +32540,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="29" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>1598</v>
       </c>
@@ -33054,7 +33052,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="30" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>1598</v>
       </c>
@@ -33662,7 +33660,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="31" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1598</v>
       </c>
@@ -34102,7 +34100,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="32" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1598</v>
       </c>
@@ -34551,7 +34549,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="33" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1598</v>
       </c>
@@ -35066,7 +35064,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="34" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1598</v>
       </c>
@@ -35605,7 +35603,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="35" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1598</v>
       </c>
@@ -36117,7 +36115,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="36" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1598</v>
       </c>
@@ -36647,7 +36645,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="37" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1598</v>
       </c>
@@ -37099,7 +37097,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="38" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1598</v>
       </c>
@@ -37623,7 +37621,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="39" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1598</v>
       </c>
@@ -38102,7 +38100,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="40" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1598</v>
       </c>
@@ -38575,7 +38573,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="41" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1598</v>
       </c>
@@ -39114,7 +39112,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="42" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1729</v>
       </c>
@@ -39611,7 +39609,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="43" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1729</v>
       </c>
@@ -40126,7 +40124,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="44" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1729</v>
       </c>
@@ -40542,7 +40540,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="45" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1729</v>
       </c>
@@ -40922,7 +40920,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="46" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1729</v>
       </c>
@@ -41341,7 +41339,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="47" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1729</v>
       </c>
@@ -41853,7 +41851,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="48" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1729</v>
       </c>
@@ -42323,7 +42321,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="49" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1729</v>
       </c>
@@ -42778,7 +42776,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="50" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1729</v>
       </c>
@@ -43245,7 +43243,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="51" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1729</v>
       </c>
@@ -43625,7 +43623,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="52" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1729</v>
       </c>
@@ -43987,7 +43985,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="53" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1729</v>
       </c>
@@ -44421,7 +44419,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="54" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1729</v>
       </c>
@@ -44765,7 +44763,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="55" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>1729</v>
       </c>
@@ -45136,7 +45134,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="56" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>1729</v>
       </c>
@@ -45618,7 +45616,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="57" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>1729</v>
       </c>
@@ -45986,7 +45984,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="58" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1729</v>
       </c>
@@ -46345,7 +46343,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="59" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1729</v>
       </c>
@@ -46719,7 +46717,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="60" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1729</v>
       </c>
@@ -47075,7 +47073,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="61" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1729</v>
       </c>
@@ -47455,7 +47453,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="62" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1857</v>
       </c>
@@ -47808,7 +47806,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="63" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1857</v>
       </c>
@@ -48278,7 +48276,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="64" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1857</v>
       </c>
@@ -48655,7 +48653,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="65" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1857</v>
       </c>
@@ -49050,7 +49048,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="66" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1857</v>
       </c>
@@ -49457,7 +49455,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="67" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1857</v>
       </c>
@@ -49879,7 +49877,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="68" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1857</v>
       </c>
@@ -50280,7 +50278,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="69" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1857</v>
       </c>
@@ -50693,7 +50691,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="70" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1857</v>
       </c>
@@ -51082,7 +51080,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="71" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1857</v>
       </c>
@@ -51474,7 +51472,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="72" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>1857</v>
       </c>
@@ -51836,7 +51834,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="73" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>1857</v>
       </c>
@@ -52246,7 +52244,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="74" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>1857</v>
       </c>
@@ -52557,7 +52555,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="75" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>1857</v>
       </c>
@@ -52898,7 +52896,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="76" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>1857</v>
       </c>
@@ -53245,7 +53243,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="77" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>1857</v>
       </c>
@@ -53592,7 +53590,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="78" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1857</v>
       </c>
@@ -53942,7 +53940,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="79" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1857</v>
       </c>
@@ -54280,7 +54278,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="80" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1857</v>
       </c>
@@ -54624,7 +54622,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="81" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>1857</v>
       </c>
@@ -54965,7 +54963,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="82" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>1985</v>
       </c>
@@ -55438,7 +55436,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="83" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>1985</v>
       </c>
@@ -55740,7 +55738,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="84" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>1985</v>
       </c>
@@ -56063,7 +56061,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="85" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>1985</v>
       </c>
@@ -56539,7 +56537,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="86" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>1985</v>
       </c>
@@ -56919,7 +56917,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="87" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1985</v>
       </c>
@@ -57296,7 +57294,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="88" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1985</v>
       </c>
@@ -57619,7 +57617,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="89" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1985</v>
       </c>
@@ -57957,7 +57955,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="90" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1985</v>
       </c>
@@ -58235,7 +58233,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="91" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1985</v>
       </c>
@@ -58618,7 +58616,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="92" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1985</v>
       </c>
@@ -58902,7 +58900,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="93" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1985</v>
       </c>
@@ -59222,7 +59220,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="94" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>1985</v>
       </c>
@@ -59683,7 +59681,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="95" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>1985</v>
       </c>
@@ -60069,7 +60067,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="96" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>1985</v>
       </c>
@@ -60461,7 +60459,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="97" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1985</v>
       </c>
@@ -60763,7 +60761,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="98" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>1985</v>
       </c>
@@ -61077,7 +61075,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="99" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>1985</v>
       </c>
@@ -61469,7 +61467,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="100" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>1985</v>
       </c>
@@ -61912,7 +61910,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="101" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1985</v>
       </c>
@@ -62229,7 +62227,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="102" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>2113</v>
       </c>
@@ -62714,7 +62712,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="103" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>2113</v>
       </c>
@@ -63205,7 +63203,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="104" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2113</v>
       </c>
@@ -63546,7 +63544,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="105" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>2113</v>
       </c>
@@ -63869,7 +63867,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="106" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>2113</v>
       </c>
@@ -64216,7 +64214,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="107" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>2113</v>
       </c>
@@ -64572,7 +64570,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="108" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>2113</v>
       </c>
@@ -64925,7 +64923,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="109" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>2113</v>
       </c>
@@ -65293,7 +65291,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="110" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>2113</v>
       </c>
@@ -65583,7 +65581,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="111" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2113</v>
       </c>
@@ -65885,7 +65883,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="112" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>2113</v>
       </c>
@@ -66202,7 +66200,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="113" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>2113</v>
       </c>
@@ -66576,7 +66574,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="114" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>2113</v>
       </c>
@@ -66914,7 +66912,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="115" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>2113</v>
       </c>
@@ -67219,7 +67217,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="116" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>2113</v>
       </c>
@@ -67509,7 +67507,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="117" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>2113</v>
       </c>
@@ -67805,7 +67803,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="118" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2113</v>
       </c>
@@ -68176,7 +68174,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="119" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>2113</v>
       </c>
@@ -68517,7 +68515,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="120" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>2113</v>
       </c>
@@ -68876,7 +68874,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="121" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>2113</v>
       </c>
@@ -69250,7 +69248,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="122" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>2241</v>
       </c>
@@ -69717,7 +69715,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="123" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>2241</v>
       </c>
@@ -70148,7 +70146,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="124" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>2241</v>
       </c>
@@ -70540,7 +70538,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="125" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2241</v>
       </c>
@@ -70965,7 +70963,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="126" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>2241</v>
       </c>
@@ -71297,7 +71295,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="127" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>2241</v>
       </c>
@@ -71692,7 +71690,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="128" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>2241</v>
       </c>
@@ -72060,7 +72058,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="129" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>2241</v>
       </c>
@@ -72404,7 +72402,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="130" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>2241</v>
       </c>
@@ -72799,7 +72797,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="131" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>2241</v>
       </c>
@@ -73173,7 +73171,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="132" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>2241</v>
       </c>
@@ -73490,7 +73488,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="133" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>2241</v>
       </c>
@@ -73876,7 +73874,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="134" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>2241</v>
       </c>
@@ -74229,7 +74227,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="135" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>2241</v>
       </c>
@@ -74630,7 +74628,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="136" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>2241</v>
       </c>
@@ -75055,7 +75053,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="137" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>2241</v>
       </c>
@@ -75441,7 +75439,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="138" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>2241</v>
       </c>
@@ -75824,7 +75822,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="139" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>2241</v>
       </c>
@@ -76225,7 +76223,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="140" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>2241</v>
       </c>
@@ -76614,7 +76612,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="141" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>2241</v>
       </c>
@@ -76997,7 +76995,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="142" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>2368</v>
       </c>
@@ -77704,7 +77702,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="143" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>2368</v>
       </c>
@@ -78219,7 +78217,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="144" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>2368</v>
       </c>
@@ -78767,7 +78765,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="145" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>2368</v>
       </c>
@@ -79351,7 +79349,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="146" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>2368</v>
       </c>
@@ -79980,7 +79978,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="147" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>2368</v>
       </c>
@@ -80423,7 +80421,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="148" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>2368</v>
       </c>
@@ -80911,7 +80909,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="149" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>2368</v>
       </c>
@@ -81435,7 +81433,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="150" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>2368</v>
       </c>
@@ -81872,7 +81870,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="151" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>2368</v>
       </c>
@@ -82390,7 +82388,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="152" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>2368</v>
       </c>
@@ -82812,7 +82810,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="153" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>2368</v>
       </c>
@@ -83321,7 +83319,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="154" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>2368</v>
       </c>
@@ -83947,7 +83945,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="155" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>2368</v>
       </c>
@@ -84570,7 +84568,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="156" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>2368</v>
       </c>
@@ -85097,7 +85095,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="157" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>2368</v>
       </c>
@@ -85624,7 +85622,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="158" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>2368</v>
       </c>
@@ -86115,7 +86113,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="159" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>2368</v>
       </c>
@@ -86687,7 +86685,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="160" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>2368</v>
       </c>
@@ -87133,7 +87131,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="161" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>2368</v>
       </c>
@@ -87660,7 +87658,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="162" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>2494</v>
       </c>
@@ -88112,7 +88110,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="163" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>2494</v>
       </c>
@@ -88555,7 +88553,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="164" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>2494</v>
       </c>
@@ -89067,7 +89065,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="165" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>2494</v>
       </c>
@@ -89594,7 +89592,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="166" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>2494</v>
       </c>
@@ -90079,7 +90077,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="167" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>2494</v>
       </c>
@@ -90540,7 +90538,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="168" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>2494</v>
       </c>
@@ -91040,7 +91038,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="169" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>2494</v>
       </c>
@@ -91564,7 +91562,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="170" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>2494</v>
       </c>
@@ -92115,7 +92113,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="171" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>2494</v>
       </c>
@@ -92618,7 +92616,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="172" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>2494</v>
       </c>
@@ -93085,7 +93083,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="173" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>2494</v>
       </c>
@@ -93672,7 +93670,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="174" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>2494</v>
       </c>
@@ -94214,7 +94212,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="175" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>2494</v>
       </c>
@@ -94687,7 +94685,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="176" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>2494</v>
       </c>
@@ -95160,7 +95158,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="177" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>2494</v>
       </c>
@@ -95621,7 +95619,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="178" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>2494</v>
       </c>
@@ -96100,7 +96098,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="179" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>2494</v>
       </c>
@@ -96597,7 +96595,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="180" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>2494</v>
       </c>
@@ -97061,7 +97059,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="181" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>2494</v>
       </c>
@@ -97561,7 +97559,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="182" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>2629</v>
       </c>
@@ -97956,7 +97954,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="183" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>2629</v>
       </c>
@@ -98489,7 +98487,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="184" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>2629</v>
       </c>
@@ -98755,7 +98753,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="185" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>2629</v>
       </c>
@@ -99108,7 +99106,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="186" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>2629</v>
       </c>
@@ -99617,7 +99615,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="187" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>2629</v>
       </c>
@@ -100147,7 +100145,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="188" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>2629</v>
       </c>
@@ -100695,7 +100693,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="189" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>2629</v>
       </c>
@@ -101276,7 +101274,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="190" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>2629</v>
       </c>
@@ -101818,7 +101816,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="191" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>2629</v>
       </c>
@@ -102243,7 +102241,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="192" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>2629</v>
       </c>
@@ -102665,7 +102663,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="193" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>2629</v>
       </c>
@@ -103141,7 +103139,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="194" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>2629</v>
       </c>
@@ -103650,7 +103648,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="195" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>2629</v>
       </c>
@@ -104099,7 +104097,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="196" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>2629</v>
       </c>
@@ -104608,7 +104606,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="197" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>2629</v>
       </c>
@@ -105198,7 +105196,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="198" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>2629</v>
       </c>
@@ -105632,7 +105630,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="199" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>2629</v>
       </c>
@@ -106159,7 +106157,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="200" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>2629</v>
       </c>
@@ -106689,7 +106687,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="201" spans="1:880" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:880" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>2629</v>
       </c>
